--- a/data/FluView_StackedColumnChart_Data.xlsx
+++ b/data/FluView_StackedColumnChart_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12182\Documents\Godel-and-Skramstad-2022-EDA-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A91EB6-ECAD-4C58-B61E-6397F2D85BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C266A3-3D91-42CD-830A-4448324BF125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="435" windowWidth="14355" windowHeight="14985"/>
+    <workbookView xWindow="14445" yWindow="570" windowWidth="14355" windowHeight="14985"/>
   </bookViews>
   <sheets>
     <sheet name="FluView_StackedColumnChart_Data" sheetId="1" r:id="rId1"/>
@@ -890,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,150 +930,150 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
       <c r="C2">
-        <v>19711</v>
+        <v>801</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B3">
         <v>41</v>
       </c>
       <c r="C3">
-        <v>19251</v>
+        <v>918</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B4">
         <v>42</v>
       </c>
       <c r="C4">
-        <v>24774</v>
+        <v>1110</v>
       </c>
       <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
         <v>52</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B5">
         <v>43</v>
       </c>
       <c r="C5">
-        <v>24946</v>
+        <v>1113</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B6">
         <v>44</v>
       </c>
       <c r="C6">
-        <v>24189</v>
+        <v>1247</v>
       </c>
       <c r="D6">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1082,97 +1082,97 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B7">
         <v>45</v>
       </c>
       <c r="C7">
-        <v>23078</v>
+        <v>1339</v>
       </c>
       <c r="D7">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B8">
         <v>46</v>
       </c>
       <c r="C8">
-        <v>23937</v>
+        <v>1426</v>
       </c>
       <c r="D8">
-        <v>439</v>
+        <v>41</v>
       </c>
       <c r="E8">
+        <v>148</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B9">
         <v>47</v>
       </c>
       <c r="C9">
-        <v>16591</v>
+        <v>1129</v>
       </c>
       <c r="D9">
-        <v>516</v>
+        <v>54</v>
       </c>
       <c r="E9">
+        <v>215</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
         <v>1</v>
-      </c>
-      <c r="F9">
-        <v>66</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1181,91 +1181,91 @@
         <v>2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B10">
         <v>48</v>
       </c>
       <c r="C10">
-        <v>25278</v>
+        <v>1704</v>
       </c>
       <c r="D10">
-        <v>807</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F10">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B11">
         <v>49</v>
       </c>
       <c r="C11">
-        <v>29941</v>
+        <v>1728</v>
       </c>
       <c r="D11">
-        <v>917</v>
+        <v>90</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="F11">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
       <c r="C12">
-        <v>32777</v>
+        <v>2200</v>
       </c>
       <c r="D12">
-        <v>1039</v>
+        <v>166</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="F12">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1274,425 +1274,1321 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B13">
         <v>51</v>
       </c>
       <c r="C13">
-        <v>33151</v>
+        <v>2674</v>
       </c>
       <c r="D13">
-        <v>886</v>
+        <v>248</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="F13">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B14">
         <v>52</v>
       </c>
       <c r="C14">
-        <v>43667</v>
+        <v>2568</v>
       </c>
       <c r="D14">
-        <v>890</v>
+        <v>274</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="F14">
-        <v>583</v>
+        <v>113</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>66242</v>
+        <v>2901</v>
       </c>
       <c r="D15">
-        <v>674</v>
+        <v>305</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="F15">
-        <v>413</v>
+        <v>162</v>
       </c>
       <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>8</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>66585</v>
+        <v>3287</v>
       </c>
       <c r="D16">
-        <v>506</v>
+        <v>233</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1430</v>
       </c>
       <c r="F16">
-        <v>498</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>47951</v>
+        <v>3330</v>
       </c>
       <c r="D17">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="F17">
-        <v>305</v>
+        <v>120</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>38776</v>
+        <v>3553</v>
       </c>
       <c r="D18">
-        <v>319</v>
+        <v>513</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1549</v>
       </c>
       <c r="F18">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19">
-        <v>27665</v>
+        <v>4166</v>
       </c>
       <c r="D19">
-        <v>255</v>
+        <v>807</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1678</v>
       </c>
       <c r="F19">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>26553</v>
+        <v>4895</v>
       </c>
       <c r="D20">
-        <v>306</v>
+        <v>1201</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1878</v>
       </c>
       <c r="F20">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>22742</v>
+        <v>4753</v>
       </c>
       <c r="D21">
-        <v>271</v>
+        <v>1305</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>1703</v>
       </c>
       <c r="F21">
-        <v>277</v>
+        <v>63</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22">
-        <v>18024</v>
+        <v>4787</v>
       </c>
       <c r="D22">
-        <v>304</v>
+        <v>1501</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="F22">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B23">
         <v>9</v>
       </c>
       <c r="C23">
-        <v>15797</v>
+        <v>4988</v>
       </c>
       <c r="D23">
-        <v>413</v>
+        <v>1783</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="F23">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24">
-        <v>14356</v>
+        <v>4834</v>
       </c>
       <c r="D24">
-        <v>368</v>
+        <v>1829</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1292</v>
       </c>
       <c r="F24">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
       <c r="C25">
-        <v>11958</v>
+        <v>4521</v>
       </c>
       <c r="D25">
-        <v>174</v>
+        <v>1826</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="F25">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>3838</v>
+      </c>
+      <c r="D26">
+        <v>1402</v>
+      </c>
+      <c r="E26">
+        <v>745</v>
+      </c>
+      <c r="F26">
+        <v>27</v>
+      </c>
+      <c r="G26">
+        <v>75</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>3010</v>
+      </c>
+      <c r="D27">
+        <v>1110</v>
+      </c>
+      <c r="E27">
+        <v>472</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>105</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>66</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2019</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>2646</v>
+      </c>
+      <c r="D28">
+        <v>887</v>
+      </c>
+      <c r="E28">
+        <v>336</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>96</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>70</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2019</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>2142</v>
+      </c>
+      <c r="D29">
+        <v>660</v>
+      </c>
+      <c r="E29">
+        <v>217</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>79</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>58</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2019</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>1494</v>
+      </c>
+      <c r="D30">
+        <v>354</v>
+      </c>
+      <c r="E30">
+        <v>130</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2019</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>1251</v>
+      </c>
+      <c r="D31">
+        <v>218</v>
+      </c>
+      <c r="E31">
+        <v>88</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>67</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>39</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>1043</v>
+      </c>
+      <c r="D32">
+        <v>158</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2019</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>847</v>
+      </c>
+      <c r="D33">
+        <v>94</v>
+      </c>
+      <c r="E33">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>41</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>803</v>
+      </c>
+      <c r="D34">
+        <v>82</v>
+      </c>
+      <c r="E34">
+        <v>43</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>40</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2019</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>553</v>
+      </c>
+      <c r="D35">
+        <v>67</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>27</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>571</v>
+      </c>
+      <c r="D36">
+        <v>55</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>25</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2019</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>502</v>
+      </c>
+      <c r="D37">
+        <v>54</v>
+      </c>
+      <c r="E37">
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2019</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>438</v>
+      </c>
+      <c r="D38">
+        <v>57</v>
+      </c>
+      <c r="E38">
+        <v>21</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>394</v>
+      </c>
+      <c r="D39">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2019</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>387</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <v>21</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>363</v>
+      </c>
+      <c r="D41">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>29</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>13</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2019</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>401</v>
+      </c>
+      <c r="D42">
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2019</v>
+      </c>
+      <c r="B43">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>323</v>
+      </c>
+      <c r="D43">
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2019</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>296</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>11</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2019</v>
+      </c>
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>336</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2019</v>
+      </c>
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46">
+        <v>295</v>
+      </c>
+      <c r="D46">
+        <v>33</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>16</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2019</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>344</v>
+      </c>
+      <c r="D47">
+        <v>34</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>38</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>356</v>
+      </c>
+      <c r="D48">
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>32</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2019</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>371</v>
+      </c>
+      <c r="D49">
+        <v>34</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>29</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>453</v>
+      </c>
+      <c r="D50">
+        <v>54</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>29</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>595</v>
+      </c>
+      <c r="D51">
+        <v>69</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>44</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>770</v>
+      </c>
+      <c r="D52">
+        <v>59</v>
+      </c>
+      <c r="E52">
+        <v>27</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>46</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2019</v>
+      </c>
+      <c r="B53">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>798</v>
+      </c>
+      <c r="D53">
+        <v>60</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>18</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>49</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
     </row>
